--- a/Dataset/GECCO20.xlsx
+++ b/Dataset/GECCO20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\CSP_Solver_Final\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8603363-2EDB-48E2-933C-7D0D9272B0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50B425-143B-46FA-8634-079AF8D64C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1852,7 +1852,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1868,7 +1868,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1896,9 +1896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C69255-5912-4D6E-83E6-D37C87DA9D15}">
   <dimension ref="A1:V159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>31</v>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>31</v>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>31</v>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>31</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>31</v>
@@ -4499,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>31</v>
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>31</v>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>31</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E143" s="19" t="s">
         <v>31</v>
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E144" s="19" t="s">
         <v>31</v>
@@ -6642,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E152" s="19" t="s">
         <v>31</v>
@@ -6931,7 +6931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327D14A3-5FD1-442E-889F-ABD1F8B88941}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Dataset/GECCO20.xlsx
+++ b/Dataset/GECCO20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\CSP_Solver_Final\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50B425-143B-46FA-8634-079AF8D64C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227CE8AE-75F9-49F7-A0A4-4B0D911A999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1898,7 +1898,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6122,7 +6122,7 @@
       <c r="O136"/>
       <c r="P136" s="15"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>195</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="O137"/>
       <c r="P137" s="15"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>196</v>
       </c>
@@ -6172,11 +6172,11 @@
       <c r="O138"/>
       <c r="P138" s="15"/>
     </row>
-    <row r="139" spans="1:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
+    <row r="139" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="14" t="s">
         <v>185</v>
       </c>
       <c r="C139" s="15">
@@ -6194,20 +6194,14 @@
       <c r="L139" s="15"/>
       <c r="M139" s="15"/>
       <c r="N139" s="15"/>
-      <c r="O139" s="18"/>
-      <c r="P139" s="18"/>
-      <c r="Q139" s="18"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="18"/>
-      <c r="T139" s="18"/>
-      <c r="U139" s="18"/>
-      <c r="V139" s="18"/>
-    </row>
-    <row r="140" spans="1:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A140" s="17" t="s">
+      <c r="O139"/>
+      <c r="P139" s="15"/>
+    </row>
+    <row r="140" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="14" t="s">
         <v>185</v>
       </c>
       <c r="C140" s="15">
@@ -6225,16 +6219,10 @@
       <c r="L140" s="15"/>
       <c r="M140" s="15"/>
       <c r="N140" s="15"/>
-      <c r="O140" s="18"/>
-      <c r="P140" s="18"/>
-      <c r="Q140" s="18"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="18"/>
-      <c r="T140" s="18"/>
-      <c r="U140" s="18"/>
-      <c r="V140" s="18"/>
-    </row>
-    <row r="141" spans="1:22" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="O140"/>
+      <c r="P140" s="15"/>
+    </row>
+    <row r="141" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>199</v>
       </c>
@@ -6253,7 +6241,6 @@
       <c r="F141" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="G141" s="16"/>
       <c r="H141" s="15">
         <v>10</v>
       </c>
@@ -6273,16 +6260,10 @@
       <c r="N141" s="15">
         <v>10</v>
       </c>
-      <c r="O141" s="15"/>
+      <c r="O141"/>
       <c r="P141" s="15"/>
-      <c r="Q141" s="15"/>
-      <c r="R141" s="15"/>
-      <c r="S141" s="15"/>
-      <c r="T141" s="15"/>
-      <c r="U141" s="15"/>
-      <c r="V141" s="15"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>201</v>
       </c>
@@ -6307,7 +6288,7 @@
       <c r="O142"/>
       <c r="P142" s="15"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>202</v>
       </c>
@@ -6332,7 +6313,7 @@
       <c r="O143"/>
       <c r="P143" s="15"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>203</v>
       </c>
@@ -6373,7 +6354,7 @@
       <c r="O144"/>
       <c r="P144" s="15"/>
     </row>
-    <row r="145" spans="1:22" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>204</v>
       </c>
@@ -6392,7 +6373,6 @@
       <c r="F145" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="G145" s="16"/>
       <c r="H145" s="15">
         <v>10</v>
       </c>
@@ -6412,14 +6392,8 @@
       <c r="N145" s="15">
         <v>10</v>
       </c>
-      <c r="O145" s="15"/>
+      <c r="O145"/>
       <c r="P145" s="15"/>
-      <c r="Q145" s="15"/>
-      <c r="R145" s="15"/>
-      <c r="S145" s="15"/>
-      <c r="T145" s="15"/>
-      <c r="U145" s="15"/>
-      <c r="V145" s="15"/>
     </row>
     <row r="146" spans="1:22" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
